--- a/source_data/taxation-premium-unleaded-gasoline-ctt-trends-2019.xlsx
+++ b/source_data/taxation-premium-unleaded-gasoline-ctt-trends-2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Applic\TPSII\OECD Tax Database\Consumption TaxTrends Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\consumption-taxes\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880FB285-6121-45EA-92E7-8E5277563958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="3675" yWindow="16080" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -262,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -530,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,6 +659,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,18 +674,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -682,6 +694,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,6 +791,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -811,6 +843,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -986,14 +1035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,29 +1055,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="33" t="s">
         <v>63</v>
       </c>
@@ -1045,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="51"/>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="46" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1078,7 +1127,8 @@
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="5" t="s">
         <v>69</v>
       </c>
@@ -2721,209 +2771,204 @@
       <c r="K41" s="47"/>
     </row>
     <row r="42" spans="1:13" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="47" spans="1:13" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
     </row>
     <row r="51" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
     </row>
     <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A55:K55"/>
     <mergeCell ref="A56:K56"/>
@@ -2940,6 +2985,11 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -2947,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2959,7 +3009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
